--- a/Stocks/EICHERMOT.xlsx
+++ b/Stocks/EICHERMOT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>25916.566666666666</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>30795.287981006302</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>29428.102034634307</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>74.364467633387633</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>14.650000000001455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>753.79999999999927</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>1.9434863358983111E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>28956.496968691292</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>651.8002010599339</v>
       </c>
       <c r="Y67">
         <v>362.92934554800911</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>31000</v>
+      </c>
+      <c r="D83">
+        <v>31900</v>
+      </c>
+      <c r="E83">
+        <v>30900.05</v>
+      </c>
+      <c r="F83">
+        <v>31234.25</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>31344.766666666666</v>
+      </c>
+      <c r="H83">
+        <v>31105.660863057165</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>31474.859858378863</v>
+      </c>
+      <c r="K83">
+        <v>30612.966306416714</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>57.926503239235807</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>334.20000000000073</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>999.95000000000073</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.33421671083554227</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>30898.229790979556</v>
+      </c>
+      <c r="W83">
+        <v>30409.619819652446</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>488.60997132711054</v>
+      </c>
+      <c r="Y83">
+        <v>579.29239988549</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>31280</v>
+      </c>
+      <c r="D84">
+        <v>31328.7</v>
+      </c>
+      <c r="E84">
+        <v>30711</v>
+      </c>
+      <c r="F84">
+        <v>30730</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>30923.233333333334</v>
+      </c>
+      <c r="H84">
+        <v>31014.447098195247</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>31442.379889850228</v>
+      </c>
+      <c r="K84">
+        <v>30634.751571657445</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>44.791954883999338</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>617.70000000000073</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>3.075926825319731E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>30872.348284675008</v>
+      </c>
+      <c r="W84">
+        <v>30433.351684863377</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>438.99659981163131</v>
+      </c>
+      <c r="Y84">
+        <v>551.23323987071831</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>31098.65</v>
+      </c>
+      <c r="D85">
+        <v>31367.4</v>
+      </c>
+      <c r="E85">
+        <v>30911</v>
+      </c>
+      <c r="F85">
+        <v>30999</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>31092.466666666664</v>
+      </c>
+      <c r="H85">
+        <v>31053.456882430954</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>31425.717692105733</v>
+      </c>
+      <c r="K85">
+        <v>30696.140111289125</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>52.043081467687713</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>88</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>456.40000000000146</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.19281332164767687</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>30891.833163955776</v>
+      </c>
+      <c r="W85">
+        <v>30475.251560058681</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>416.58160389709519</v>
+      </c>
+      <c r="Y85">
+        <v>524.30291267599364</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>31000</v>
+      </c>
+      <c r="D86">
+        <v>31545</v>
+      </c>
+      <c r="E86">
+        <v>30620</v>
+      </c>
+      <c r="F86">
+        <v>31500</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>31221.666666666668</v>
+      </c>
+      <c r="H86">
+        <v>31137.561774548813</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>31452.224871637791</v>
+      </c>
+      <c r="K86">
+        <v>30679.220086558209</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>63.273147048203363</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>880</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>925</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.9513513513513514</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>30985.397292577964</v>
+      </c>
+      <c r="W86">
+        <v>30551.158851906188</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>434.23844067177561</v>
+      </c>
+      <c r="Y86">
+        <v>506.29001827515003</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>31528.75</v>
+      </c>
+      <c r="D87">
+        <v>31970</v>
+      </c>
+      <c r="E87">
+        <v>31298.95</v>
+      </c>
+      <c r="F87">
+        <v>31651</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>31639.983333333334</v>
+      </c>
+      <c r="H87">
+        <v>31388.772553941075</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>31567.286011273838</v>
+      </c>
+      <c r="K87">
+        <v>30816.937845100831</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>66.250608855941636</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>352.04999999999927</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>671.04999999999927</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.52462558676700644</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>31087.79770910443</v>
+      </c>
+      <c r="W87">
+        <v>30632.628566579802</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>455.16914252462811</v>
+      </c>
+      <c r="Y87">
+        <v>496.06584312504566</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>31946</v>
+      </c>
+      <c r="D88">
+        <v>31946</v>
+      </c>
+      <c r="E88">
+        <v>31448.1</v>
+      </c>
+      <c r="F88">
+        <v>31800</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>31731.366666666669</v>
+      </c>
+      <c r="H88">
+        <v>31560.069610303872</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>31651.444675435207</v>
+      </c>
+      <c r="K88">
+        <v>30957.196101745089</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>69.318618550125564</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>351.90000000000146</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>497.90000000000146</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.70676842739506007</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>31197.367292319133</v>
+      </c>
+      <c r="W88">
+        <v>30719.100524610927</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>478.26676770820632</v>
+      </c>
+      <c r="Y88">
+        <v>492.50602804167778</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>31750</v>
+      </c>
+      <c r="D89">
+        <v>32000</v>
+      </c>
+      <c r="E89">
+        <v>31600</v>
+      </c>
+      <c r="F89">
+        <v>31885.4</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>31828.466666666664</v>
+      </c>
+      <c r="H89">
+        <v>31694.268138485269</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>31728.901414227385</v>
+      </c>
+      <c r="K89">
+        <v>31100.041412468403</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>71.194672072048888</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>285.40000000000146</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>400</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.71350000000000369</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>31303.218478116189</v>
+      </c>
+      <c r="W89">
+        <v>30805.49307834345</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>497.72539977273846</v>
+      </c>
+      <c r="Y89">
+        <v>493.54990238788992</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>31747.4</v>
+      </c>
+      <c r="D90">
+        <v>32121.15</v>
+      </c>
+      <c r="E90">
+        <v>31635.3</v>
+      </c>
+      <c r="F90">
+        <v>32120</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>31958.816666666666</v>
+      </c>
+      <c r="H90">
+        <v>31826.542402575968</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>31816.067766621298</v>
+      </c>
+      <c r="K90">
+        <v>31218.987765253201</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>76.193289080557662</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>484.70000000000073</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>485.85000000000218</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.99763301430482365</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>31428.877173790621</v>
+      </c>
+      <c r="W90">
+        <v>30902.863961429121</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>526.01321236150034</v>
+      </c>
+      <c r="Y90">
+        <v>500.042564382612</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>31690.7</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>31820.9</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>31878.2</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>31935.550000000003</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>32500</v>
+      </c>
+      <c r="D91">
+        <v>33328.800000000003</v>
+      </c>
+      <c r="E91">
+        <v>32301</v>
+      </c>
+      <c r="F91">
+        <v>32849</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>32826.26666666667</v>
+      </c>
+      <c r="H91">
+        <v>32326.404534621317</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>32152.230485149899</v>
+      </c>
+      <c r="K91">
+        <v>31459.434928530267</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>85.778899548624736</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>548</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>1027.8000000000029</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.53317766102354391</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>31647.357608592065</v>
+      </c>
+      <c r="W91">
+        <v>31047.022186508446</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>600.33542208361905</v>
+      </c>
+      <c r="Y91">
+        <v>520.10113592281346</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>33399.949999999997</v>
+      </c>
+      <c r="D92">
+        <v>33480</v>
+      </c>
+      <c r="E92">
+        <v>32468.1</v>
+      </c>
+      <c r="F92">
+        <v>32520</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>32822.700000000004</v>
+      </c>
+      <c r="H92">
+        <v>32574.552267310661</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>32447.29037733881</v>
+      </c>
+      <c r="K92">
+        <v>31683.582722190207</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>69.901324755024604</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>51.900000000001455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>1011.9000000000015</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>5.128965312778079E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>31781.610284193284</v>
+      </c>
+      <c r="W92">
+        <v>31156.131654174485</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>625.47863001879887</v>
+      </c>
+      <c r="Y92">
+        <v>541.17663474201049</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>32500</v>
+      </c>
+      <c r="D93">
+        <v>32750</v>
+      </c>
+      <c r="E93">
+        <v>32400</v>
+      </c>
+      <c r="F93">
+        <v>32598</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>32582.666666666668</v>
+      </c>
+      <c r="H93">
+        <v>32578.609466988666</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>32514.559182374629</v>
+      </c>
+      <c r="K93">
+        <v>31842.786561703495</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>71.466515343266636</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>198</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>350</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.56571428571428573</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>31907.208702009702</v>
+      </c>
+      <c r="W93">
+        <v>31262.936716828226</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>644.27198518147634</v>
+      </c>
+      <c r="Y93">
+        <v>561.79570482990368</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>32698</v>
+      </c>
+      <c r="D94">
+        <v>32698.95</v>
+      </c>
+      <c r="E94">
+        <v>32300.05</v>
+      </c>
+      <c r="F94">
+        <v>32600</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>32533</v>
+      </c>
+      <c r="H94">
+        <v>32555.804733494333</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>32555.534919624712</v>
+      </c>
+      <c r="K94">
+        <v>31944.400659102717</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>71.513993824355566</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>299.95000000000073</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>398.90000000000146</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.75194284281774793</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>32013.791978623594</v>
+      </c>
+      <c r="W94">
+        <v>31361.978441507617</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>651.81353711597694</v>
+      </c>
+      <c r="Y94">
+        <v>579.79927128711836</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>32599</v>
+      </c>
+      <c r="D95">
+        <v>32604.25</v>
+      </c>
+      <c r="E95">
+        <v>32082.25</v>
+      </c>
+      <c r="F95">
+        <v>32184</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>32290.166666666668</v>
+      </c>
+      <c r="H95">
+        <v>32422.985700080499</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>32566.360493041444</v>
+      </c>
+      <c r="K95">
+        <v>31975.033845968781</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>49.918023129736063</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>101.75</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>522</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.19492337164750959</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>32039.977828066119</v>
+      </c>
+      <c r="W95">
+        <v>31422.86892732187</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>617.10890074424969</v>
+      </c>
+      <c r="Y95">
+        <v>587.26119717854465</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>32301.200000000001</v>
+      </c>
+      <c r="D96">
+        <v>32340</v>
+      </c>
+      <c r="E96">
+        <v>31836.7</v>
+      </c>
+      <c r="F96">
+        <v>32060.05</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>32078.916666666668</v>
+      </c>
+      <c r="H96">
+        <v>32250.951183373581</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>32516.058161254456</v>
+      </c>
+      <c r="K96">
+        <v>31944.292991309052</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>44.871257351217707</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>223.34999999999854</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>503.29999999999927</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.44377111066957853</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>32043.065854517485</v>
+      </c>
+      <c r="W96">
+        <v>31470.067525298029</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>572.99832921945563</v>
+      </c>
+      <c r="Y96">
+        <v>584.40862358672689</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>31965.200000000001</v>
+      </c>
+      <c r="D97">
+        <v>32099.4</v>
+      </c>
+      <c r="E97">
+        <v>31650</v>
+      </c>
+      <c r="F97">
+        <v>31950</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>31899.8</v>
+      </c>
+      <c r="H97">
+        <v>32075.375591686789</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>32423.467458753465</v>
+      </c>
+      <c r="K97">
+        <v>31878.894548795928</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>40.344439811404932</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>300</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>449.40000000000146</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.66755674232309525</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>32028.748030745563</v>
+      </c>
+      <c r="W97">
+        <v>31505.618078979656</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>523.1299517659063</v>
+      </c>
+      <c r="Y97">
+        <v>572.15288922256275</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>32160</v>
+      </c>
+      <c r="D98">
+        <v>32799.199999999997</v>
+      </c>
+      <c r="E98">
+        <v>32136.85</v>
+      </c>
+      <c r="F98">
+        <v>32760</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>32565.349999999995</v>
+      </c>
+      <c r="H98">
+        <v>32320.362795843394</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>32506.963579030471</v>
+      </c>
+      <c r="K98">
+        <v>31936.217982396833</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>69.0611231618213</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>623.15000000000146</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>662.34999999999854</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.94081678870688135</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>32141.248333707783</v>
+      </c>
+      <c r="W98">
+        <v>31598.535258314496</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>542.713075393287</v>
+      </c>
+      <c r="Y98">
+        <v>566.2649264567076</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>32800</v>
+      </c>
+      <c r="D99">
+        <v>32916.85</v>
+      </c>
+      <c r="E99">
+        <v>32290</v>
+      </c>
+      <c r="F99">
+        <v>32450</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>32552.283333333336</v>
+      </c>
+      <c r="H99">
+        <v>32436.323064588367</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>32598.049450357033</v>
+      </c>
+      <c r="K99">
+        <v>32014.836208530869</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.134141707474669</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>626.84999999999854</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.25524447635000458</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>32188.748590060433</v>
+      </c>
+      <c r="W99">
+        <v>31661.60672066157</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>527.14186939886349</v>
+      </c>
+      <c r="Y99">
+        <v>558.44031504513873</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>32451.5</v>
+      </c>
+      <c r="D100">
+        <v>32644.95</v>
+      </c>
+      <c r="E100">
+        <v>32300</v>
+      </c>
+      <c r="F100">
+        <v>32420</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>32454.983333333334</v>
+      </c>
+      <c r="H100">
+        <v>32445.653198960848</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>32608.471794722136</v>
+      </c>
+      <c r="K100">
+        <v>32078.205939968455</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>54.891241904320232</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>120</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>344.95000000000073</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.34787650384113566</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>32224.325730051136</v>
+      </c>
+      <c r="W100">
+        <v>31717.784000612566</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>506.54172943856975</v>
+      </c>
+      <c r="Y100">
+        <v>548.06059792382496</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>32480</v>
+      </c>
+      <c r="D101">
+        <v>32549</v>
+      </c>
+      <c r="E101">
+        <v>31698.35</v>
+      </c>
+      <c r="F101">
+        <v>31770</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>32005.783333333336</v>
+      </c>
+      <c r="H101">
+        <v>32225.718266147094</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>32595.25584033944</v>
+      </c>
+      <c r="K101">
+        <v>31993.793508864353</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>34.314138282222928</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>71.650000000001455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>850.65000000000146</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>8.4229706694881959E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>32154.429463889424</v>
+      </c>
+      <c r="W101">
+        <v>31721.651852419043</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>432.77761147038109</v>
+      </c>
+      <c r="Y101">
+        <v>525.00400063313623</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>31779</v>
+      </c>
+      <c r="D102">
+        <v>31779</v>
+      </c>
+      <c r="E102">
+        <v>31280</v>
+      </c>
+      <c r="F102">
+        <v>31569</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>31542.666666666668</v>
+      </c>
+      <c r="H102">
+        <v>31884.192466406879</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>32413.865653597342</v>
+      </c>
+      <c r="K102">
+        <v>31835.172729116719</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>29.971249123395005</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>289</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>499</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.57915831663326656</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>32064.36339252182</v>
+      </c>
+      <c r="W102">
+        <v>31710.344307795411</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>354.01908472640935</v>
+      </c>
+      <c r="Y102">
+        <v>490.80701745179084</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>31500</v>
+      </c>
+      <c r="D103">
+        <v>31651.200000000001</v>
+      </c>
+      <c r="E103">
+        <v>30577.599999999999</v>
+      </c>
+      <c r="F103">
+        <v>30950</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>31059.600000000002</v>
+      </c>
+      <c r="H103">
+        <v>31471.896233203443</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>32244.384397242378</v>
+      </c>
+      <c r="K103">
+        <v>31555.712122646335</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>20.152758140984428</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>372.40000000000146</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>1073.6000000000022</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.34687034277198275</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>31892.922870595386</v>
+      </c>
+      <c r="W103">
+        <v>31654.022507217975</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>238.90036337741185</v>
+      </c>
+      <c r="Y103">
+        <v>440.42568663691503</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>30900</v>
+      </c>
+      <c r="D104">
+        <v>31060.15</v>
+      </c>
+      <c r="E104">
+        <v>30500.05</v>
+      </c>
+      <c r="F104">
+        <v>30870</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>30810.066666666666</v>
+      </c>
+      <c r="H104">
+        <v>31140.981449935054</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>31981.221197855182</v>
+      </c>
+      <c r="K104">
+        <v>31321.12053983604</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>19.139810745420206</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>369.95000000000073</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>560.10000000000218</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.66050705231208584</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>31735.55012127302</v>
+      </c>
+      <c r="W104">
+        <v>31595.946765942568</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>139.60335533045145</v>
+      </c>
+      <c r="Y104">
+        <v>380.26122037562232</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>30967.8</v>
+      </c>
+      <c r="D105">
+        <v>31050</v>
+      </c>
+      <c r="E105">
+        <v>30338</v>
+      </c>
+      <c r="F105">
+        <v>30488</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>30625.333333333332</v>
+      </c>
+      <c r="H105">
+        <v>30883.157391634195</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>31774.283153887365</v>
+      </c>
+      <c r="K105">
+        <v>31102.649308761363</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>14.722817642074256</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>712</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.21067415730337077</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>31543.619333384864</v>
+      </c>
+      <c r="W105">
+        <v>31513.876635132008</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>29.742698252855917</v>
+      </c>
+      <c r="Y105">
+        <v>310.15751595106906</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>30570</v>
+      </c>
+      <c r="D106">
+        <v>30594.2</v>
+      </c>
+      <c r="E106">
+        <v>29910.05</v>
+      </c>
+      <c r="F106">
+        <v>30143.1</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>30215.783333333336</v>
+      </c>
+      <c r="H106">
+        <v>30549.470362483764</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>31512.042453023507</v>
+      </c>
+      <c r="K106">
+        <v>30837.627240147725</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>11.680578893641849</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>233.04999999999927</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>684.15000000000146</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.34064167214791902</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>31328.154820556425</v>
+      </c>
+      <c r="W106">
+        <v>31412.337625122229</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-84.182804565803963</v>
+      </c>
+      <c r="Y106">
+        <v>231.28945184769447</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>30385</v>
+      </c>
+      <c r="D107">
+        <v>31289</v>
+      </c>
+      <c r="E107">
+        <v>30204.45</v>
+      </c>
+      <c r="F107">
+        <v>31219</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>30904.149999999998</v>
+      </c>
+      <c r="H107">
+        <v>30726.810181241883</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>31462.477463462728</v>
+      </c>
+      <c r="K107">
+        <v>30696.921186781565</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>51.089431854542653</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1014.5499999999993</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>1084.5499999999993</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.93545710202388088</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>31311.361771240052</v>
+      </c>
+      <c r="W107">
+        <v>31398.016319557621</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-86.654548317568697</v>
+      </c>
+      <c r="Y107">
+        <v>167.70065181464184</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
